--- a/applications/Brazil/Salvador_projections.xlsx
+++ b/applications/Brazil/Salvador_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>5388</v>
+        <v>184338</v>
       </c>
       <c r="B4">
-        <v>3115</v>
+        <v>130833</v>
       </c>
       <c r="C4">
-        <v>8929</v>
+        <v>556133</v>
       </c>
       <c r="D4">
-        <v>0.1250747601177713</v>
+        <v>4.278464034231704</v>
       </c>
       <c r="E4">
-        <v>0.07231616514299981</v>
+        <v>3.036622432224705</v>
       </c>
       <c r="F4">
-        <v>0.2072419021796461</v>
+        <v>12.9077487272023</v>
       </c>
       <c r="G4">
-        <v>220059</v>
+        <v>1804766</v>
       </c>
       <c r="H4">
-        <v>131420</v>
+        <v>1163866</v>
       </c>
       <c r="I4">
-        <v>345252</v>
+        <v>3478066</v>
       </c>
       <c r="J4">
-        <v>0.01385667288805983</v>
+        <v>0.629120570093143</v>
       </c>
       <c r="K4">
-        <v>0.01245072687944736</v>
+        <v>0.4036279554408665</v>
       </c>
       <c r="L4">
-        <v>0.01520642156396842</v>
+        <v>0.7019698216407018</v>
       </c>
       <c r="M4">
-        <v>6176</v>
+        <v>41948</v>
       </c>
       <c r="N4">
-        <v>3299</v>
+        <v>66004</v>
       </c>
       <c r="O4">
-        <v>11860</v>
+        <v>71151</v>
       </c>
       <c r="P4">
-        <v>0.1500314214319558</v>
+        <v>1.018901802213911</v>
       </c>
       <c r="Q4">
-        <v>0.08013461546448995</v>
+        <v>1.603194263283002</v>
       </c>
       <c r="R4">
-        <v>0.2880877284689668</v>
+        <v>1.728223692866803</v>
       </c>
       <c r="S4">
-        <v>253339</v>
+        <v>454220</v>
       </c>
       <c r="T4">
-        <v>142914</v>
+        <v>583709</v>
       </c>
       <c r="U4">
-        <v>453682</v>
+        <v>891244</v>
       </c>
       <c r="V4">
-        <v>0.01605390357084293</v>
+        <v>0.6446031665363524</v>
       </c>
       <c r="W4">
-        <v>0.01365235996904272</v>
+        <v>0.4285354613933158</v>
       </c>
       <c r="X4">
-        <v>0.01937879196907616</v>
+        <v>0.726327080704457</v>
       </c>
     </row>
   </sheetData>

--- a/applications/Brazil/Salvador_projections.xlsx
+++ b/applications/Brazil/Salvador_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>184338</v>
+        <v>353365</v>
       </c>
       <c r="B4">
         <v>130833</v>
       </c>
       <c r="C4">
-        <v>556133</v>
+        <v>488490</v>
       </c>
       <c r="D4">
-        <v>4.278464034231704</v>
+        <v>8.201539252279293</v>
       </c>
       <c r="E4">
         <v>3.036622432224705</v>
       </c>
       <c r="F4">
-        <v>12.9077487272023</v>
+        <v>11.33777824661621</v>
       </c>
       <c r="G4">
-        <v>1804766</v>
+        <v>2525900</v>
       </c>
       <c r="H4">
         <v>1163866</v>
       </c>
       <c r="I4">
-        <v>3478066</v>
+        <v>2443733</v>
       </c>
       <c r="J4">
-        <v>0.629120570093143</v>
+        <v>0.5499129903183797</v>
       </c>
       <c r="K4">
         <v>0.4036279554408665</v>
       </c>
       <c r="L4">
-        <v>0.7019698216407018</v>
+        <v>0.5312042598113884</v>
       </c>
       <c r="M4">
-        <v>41948</v>
+        <v>97193</v>
       </c>
       <c r="N4">
         <v>66004</v>
       </c>
       <c r="O4">
-        <v>71151</v>
+        <v>303760</v>
       </c>
       <c r="P4">
-        <v>1.018901802213911</v>
+        <v>2.360766947887952</v>
       </c>
       <c r="Q4">
         <v>1.603194263283002</v>
       </c>
       <c r="R4">
-        <v>1.728223692866803</v>
+        <v>7.378145127749472</v>
       </c>
       <c r="S4">
-        <v>454220</v>
+        <v>1018709</v>
       </c>
       <c r="T4">
         <v>583709</v>
       </c>
       <c r="U4">
-        <v>891244</v>
+        <v>2424872</v>
       </c>
       <c r="V4">
-        <v>0.6446031665363524</v>
+        <v>0.5827810713874272</v>
       </c>
       <c r="W4">
         <v>0.4285354613933158</v>
       </c>
       <c r="X4">
-        <v>0.726327080704457</v>
+        <v>0.643749662307585</v>
       </c>
     </row>
   </sheetData>
